--- a/outputs-r202/c__Planctomycetes.xlsx
+++ b/outputs-r202/c__Planctomycetes.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,11 @@
           <t>o__Pirellulales</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>o__Pirellulales</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -535,6 +545,11 @@
           <t>o__Gemmatales</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>o__Gemmatales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -563,6 +578,11 @@
       <c r="H4" t="inlineStr">
         <is>
           <t>o__Gemmatales</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>o__Gemmatales(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-r202/c__Planctomycetes.xlsx
+++ b/outputs-r202/c__Planctomycetes.xlsx
@@ -488,22 +488,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.220444785790114e-14</v>
+        <v>2.220445769360098e-14</v>
       </c>
       <c r="C2" t="n">
-        <v>2.916194599969777e-06</v>
+        <v>9.758200984855855e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>2.220444785790114e-14</v>
+        <v>2.220445769360098e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999970838053334</v>
+        <v>0.999999024179835</v>
       </c>
       <c r="F2" t="n">
-        <v>2.220444785790114e-14</v>
+        <v>2.220445769360098e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9999970838053334</v>
+        <v>0.999999024179835</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -523,22 +523,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4999999329434282</v>
+        <v>0.4999999234994192</v>
       </c>
       <c r="C3" t="n">
-        <v>1.341130992526147e-07</v>
+        <v>1.530011171055361e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>2.220446309817281e-14</v>
+        <v>2.220446346514625e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>2.220446309817281e-14</v>
+        <v>2.220446346514625e-14</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4999999329434281</v>
+        <v>0.4999999234994193</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4999999329434282</v>
+        <v>0.4999999234994193</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -558,22 +558,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4999992869828232</v>
+        <v>0.49999951412322</v>
       </c>
       <c r="C4" t="n">
-        <v>1.426034309166726e-06</v>
+        <v>9.717535157297193e-07</v>
       </c>
       <c r="D4" t="n">
-        <v>2.22044881987741e-14</v>
+        <v>2.220447937260233e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>2.22044881987741e-14</v>
+        <v>2.220447937260233e-14</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4999992869828233</v>
+        <v>0.49999951412322</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4999992869828233</v>
+        <v>0.49999951412322</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
